--- a/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Con.Multi.Protein.PlaquePhenotypes.RANK.MODEL2.xlsx
+++ b/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Con.Multi.Protein.PlaquePhenotypes.RANK.MODEL2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t xml:space="preserve">VesselDensity_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_pg_ml_2015_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_rank</t>
   </si>
 </sst>
 </file>
@@ -461,40 +467,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0612855504506081</v>
+        <v>0.0714487617452087</v>
       </c>
       <c r="E2" t="n">
-        <v>0.031778472210694</v>
+        <v>0.032286644487318</v>
       </c>
       <c r="F2" t="n">
-        <v>0.94055462562922</v>
+        <v>1.07406311617178</v>
       </c>
       <c r="G2" t="n">
-        <v>0.883758577531582</v>
+        <v>1.00820037896599</v>
       </c>
       <c r="H2" t="n">
-        <v>1.0010007555043</v>
+        <v>1.14422847043936</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.92852412929985</v>
+        <v>2.21295098576359</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0540727766860799</v>
+        <v>0.0271282739699829</v>
       </c>
       <c r="K2" t="n">
-        <v>0.022699803927989</v>
+        <v>0.199642650122291</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00510840039869276</v>
+        <v>0.176221496594084</v>
       </c>
       <c r="M2" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N2" t="n">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="O2" t="n">
-        <v>57.9099545642297</v>
+        <v>57.8621543541065</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +514,40 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.102996787316695</v>
+        <v>-0.073653066853816</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0329729510982603</v>
+        <v>0.0324488422366725</v>
       </c>
       <c r="F3" t="n">
-        <v>0.902129871734439</v>
+        <v>0.928993936728941</v>
       </c>
       <c r="G3" t="n">
-        <v>0.845671940752354</v>
+        <v>0.871749821978802</v>
       </c>
       <c r="H3" t="n">
-        <v>0.962356992419026</v>
+        <v>0.989997029790184</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.12367513025332</v>
+        <v>-2.26982110229424</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00183768037306323</v>
+        <v>0.0234334189896108</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0283283633073079</v>
+        <v>0.199901279178963</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0107680325237051</v>
+        <v>0.176392806125458</v>
       </c>
       <c r="M3" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N3" t="n">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="O3" t="n">
-        <v>58.0751755472945</v>
+        <v>58.027238959967</v>
       </c>
     </row>
     <row r="4">
@@ -555,40 +561,322 @@
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.142073200447649</v>
+        <v>-0.0570783394030029</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0332557909709045</v>
+        <v>0.0316332950527268</v>
       </c>
       <c r="F4" t="n">
-        <v>0.867557748545983</v>
+        <v>0.94452007332949</v>
       </c>
       <c r="G4" t="n">
-        <v>0.812812721563407</v>
+        <v>0.887737136109742</v>
       </c>
       <c r="H4" t="n">
-        <v>0.925989993875189</v>
+        <v>1.00493505637468</v>
       </c>
       <c r="I4" t="n">
-        <v>-4.27213415467847</v>
+        <v>-1.80437539964977</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0000213484698105976</v>
+        <v>0.0714983494109482</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0397679914956941</v>
+        <v>0.19999607245993</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0212227381125637</v>
+        <v>0.174860521107099</v>
       </c>
       <c r="M4" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N4" t="n">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="O4" t="n">
-        <v>60.7187112763321</v>
+        <v>60.668592653735</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0870152953076361</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0308829201560253</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.0909133654462</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.02683861024077</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.15898638699425</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.8175863832831</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.00493480323451057</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.251597553987997</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.229696776052227</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1021</v>
+      </c>
+      <c r="O5" t="n">
+        <v>57.8621543541065</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.145018671668191</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0307987745268994</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.865006141852292</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.814334332237226</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.918830995847314</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-4.70858577640915</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.00000285093361592816</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.261683291659197</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.23999009556813</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1017</v>
+      </c>
+      <c r="O6" t="n">
+        <v>58.027238959967</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.0476932344938231</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.030287754555999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.953426220498102</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.898474248761471</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.01173913352148</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1.57467052916198</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.115675193595248</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.243832301412757</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.220074053028109</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N7" t="n">
+        <v>953</v>
+      </c>
+      <c r="O7" t="n">
+        <v>60.668592653735</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0971796405511474</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0418936498686737</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.1020583302058</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.01518218277759</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.19636906929647</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.31967472053119</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0207806871586204</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.114927287761619</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0777393586759728</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N8" t="n">
+        <v>497</v>
+      </c>
+      <c r="O8" t="n">
+        <v>79.4882377218324</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.253030666527429</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0438266435506658</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.776444070615248</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.712531691958533</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.84608923588575</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-5.77344386947891</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0000000140596782157026</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.164109031683249</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.128839370572837</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N9" t="n">
+        <v>495</v>
+      </c>
+      <c r="O9" t="n">
+        <v>79.5707800247627</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.042854069861196</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0551328272180718</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.958051188409293</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.859921295133979</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.06737917156645</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.777287725363537</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.437383439023689</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.109490143209984</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0712708360516142</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N10" t="n">
+        <v>487</v>
+      </c>
+      <c r="O10" t="n">
+        <v>79.9009492364837</v>
       </c>
     </row>
   </sheetData>
